--- a/data/evaluation/evaluation_Center_Winter_Clementines.xlsx
+++ b/data/evaluation/evaluation_Center_Winter_Clementines.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2737.102880568895</v>
+        <v>2720.021628355648</v>
       </c>
       <c r="C4" t="n">
-        <v>12045320.02718265</v>
+        <v>11956468.95440956</v>
       </c>
       <c r="D4" t="n">
-        <v>3470.636833087358</v>
+        <v>3457.812741374171</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06110165453282346</v>
+        <v>0.06802734227141227</v>
       </c>
     </row>
     <row r="5">
